--- a/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\ITP\Semester 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30D2A5-DB33-4772-BCFC-927C11D463F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2AEA9-278E-4B30-A8AA-15733F7A9B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" activeTab="1" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Abschätzung" sheetId="2" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1C243-B587-45E0-8D67-95D9D9D7A84C}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1540,9 +1540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C5DED-3ECD-417F-AAE3-7276A3435899}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
@@ -2010,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="5"/>
@@ -2038,7 +2038,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="5"/>
@@ -2066,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="5"/>
@@ -2094,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="5"/>
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="15"/>
@@ -2210,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="5"/>

--- a/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2AEA9-278E-4B30-A8AA-15733F7A9B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC36B02-8D28-47BC-904F-DA739C2BF8C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" activeTab="2" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Abschätzung" sheetId="2" r:id="rId1"/>
-    <sheet name="Projectablaufplan" sheetId="4" r:id="rId2"/>
+    <sheet name="Projektablaufplan" sheetId="4" r:id="rId2"/>
+    <sheet name="Projektstrukturplan" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projectablaufplan!$A$1:$T$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projektablaufplan!$A$1:$V$25</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t>Anpassen</t>
   </si>
@@ -155,13 +156,115 @@
   </si>
   <si>
     <t>Abhängig von</t>
+  </si>
+  <si>
+    <t>Nummerierung</t>
+  </si>
+  <si>
+    <t>Verantwortlicher</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>8.02</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>8.01</t>
+  </si>
+  <si>
+    <t>Wöhrer</t>
+  </si>
+  <si>
+    <t>Körner</t>
+  </si>
+  <si>
+    <t>Ganzes Team</t>
+  </si>
+  <si>
+    <t>Kment</t>
+  </si>
+  <si>
+    <t>Online Cloud</t>
+  </si>
+  <si>
+    <t>Vor Project Start</t>
+  </si>
+  <si>
+    <t>Programmieren</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +272,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +293,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -208,21 +342,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -395,14 +514,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -415,7 +547,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,10 +556,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -438,10 +572,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -453,10 +587,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -466,10 +600,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -478,13 +619,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -493,167 +632,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,11 +672,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -702,119 +776,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,46 +867,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1C243-B587-45E0-8D67-95D9D9D7A84C}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1196,10 +1327,10 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1342,7 @@
       <c r="B4">
         <v>0.75</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1228,7 +1359,7 @@
       <c r="B5">
         <v>0.25</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1374,7 @@
       <c r="B6">
         <v>1.5</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1260,7 +1391,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1406,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1292,7 +1423,7 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1449,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1332,7 +1463,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1475,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1490,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1502,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1514,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1526,7 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1538,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1550,7 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1562,7 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1574,7 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1584,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1467,7 +1598,7 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1610,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1619,7 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1499,7 +1630,7 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1639,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1538,905 +1669,1069 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C5DED-3ECD-417F-AAE3-7276A3435899}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B25"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" customWidth="1"/>
+    <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12">
+      <c r="F1" s="12">
         <v>43161</v>
       </c>
-      <c r="E1" s="7">
+      <c r="G1" s="7">
         <v>43168</v>
       </c>
-      <c r="F1" s="7">
+      <c r="H1" s="7">
         <v>43175</v>
       </c>
-      <c r="G1" s="7">
+      <c r="I1" s="7">
         <v>43182</v>
       </c>
-      <c r="H1" s="7">
+      <c r="J1" s="7">
         <v>43189</v>
       </c>
-      <c r="I1" s="7">
+      <c r="K1" s="7">
         <v>43196</v>
       </c>
-      <c r="J1" s="7">
+      <c r="L1" s="7">
         <v>43203</v>
       </c>
-      <c r="K1" s="7">
+      <c r="M1" s="7">
         <v>43210</v>
       </c>
-      <c r="L1" s="7">
+      <c r="N1" s="7">
         <v>43217</v>
       </c>
-      <c r="M1" s="7">
+      <c r="O1" s="7">
         <v>43224</v>
       </c>
-      <c r="N1" s="7">
+      <c r="P1" s="7">
         <v>43231</v>
       </c>
-      <c r="O1" s="7">
+      <c r="Q1" s="7">
         <v>43238</v>
       </c>
-      <c r="P1" s="7">
+      <c r="R1" s="7">
         <v>43245</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="S1" s="7">
         <v>43252</v>
       </c>
-      <c r="R1" s="7">
+      <c r="T1" s="7">
         <v>43259</v>
       </c>
-      <c r="S1" s="7">
+      <c r="U1" s="7">
         <v>43266</v>
       </c>
-      <c r="T1" s="8">
+      <c r="V1" s="8">
         <v>43273</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="49">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="23" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="15">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68"/>
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="50">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="H3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="49">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="37">
-        <v>2</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="23" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="27">
+        <v>2</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="50">
         <v>3</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="49">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="37">
-        <v>2</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="23" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="27">
+        <v>2</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="50">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="51">
         <v>3</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="43">
-        <v>2</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="33">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="35"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="23" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="50">
         <v>1</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="49">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="46">
-        <v>2</v>
-      </c>
-      <c r="J11" s="46">
-        <v>2</v>
-      </c>
-      <c r="K11" s="46">
-        <v>2</v>
-      </c>
-      <c r="L11" s="46">
-        <v>2</v>
-      </c>
-      <c r="M11" s="46">
-        <v>2</v>
-      </c>
-      <c r="N11" s="46">
-        <v>2</v>
-      </c>
-      <c r="O11" s="46">
-        <v>2</v>
-      </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="48"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="26" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="36">
+        <v>2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>2</v>
+      </c>
+      <c r="M11" s="36">
+        <v>2</v>
+      </c>
+      <c r="N11" s="36">
+        <v>2</v>
+      </c>
+      <c r="O11" s="36">
+        <v>2</v>
+      </c>
+      <c r="P11" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>2</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="36">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="51"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="52">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="36">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="51"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="26" t="s">
+      <c r="C13" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="52">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="36">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="51"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="26" t="s">
+      <c r="C14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="52">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="41"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="36">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="51"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="26" t="s">
+      <c r="C15" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="52">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="41"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="36">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="51"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="26" t="s">
+      <c r="C16" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="52">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="41"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="36">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="51"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="26" t="s">
+      <c r="C17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="52">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="41"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="23" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="41"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68"/>
+      <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="50">
         <v>1</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="29"/>
+      <c r="V19" s="30"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="49">
         <v>3</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="37">
-        <v>2</v>
-      </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="26" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="27">
+        <v>2</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="28"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="36">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="51"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="23" t="s">
+      <c r="C21" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="52">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="41"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="50">
         <v>1</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="40"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="30"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="32">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="26" t="s">
+      <c r="C23" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="49">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="28"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="36">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="51"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="23" t="s">
+      <c r="C24" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="52">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="41"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
+      <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="50">
         <v>1</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="40"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="65" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="30"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="60"/>
+      <c r="D28" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="66"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="E28" s="71"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="47"/>
+      <c r="D29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="29">
+      <c r="E29" s="62">
         <v>1</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="47"/>
+      <c r="D30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+      <c r="E30" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="47"/>
+      <c r="D31" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="31">
+      <c r="E31" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="61"/>
+      <c r="D33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="29">
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="62">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="48"/>
+      <c r="D35" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="29">
+      <c r="E35" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="54"/>
-      <c r="C37" s="31">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="26">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T25" xr:uid="{35AE145F-A6B6-42BE-888F-E82FBC55DC03}"/>
+  <autoFilter ref="A1:V25" xr:uid="{35AE145F-A6B6-42BE-888F-E82FBC55DC03}"/>
   <mergeCells count="9">
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="E2">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -2445,7 +2740,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -2454,7 +2749,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
+  <conditionalFormatting sqref="Q12">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -2463,7 +2758,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
+  <conditionalFormatting sqref="E1:E2">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2472,7 +2767,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:T22 D23:K23 M23:T23 D24:T25">
+  <conditionalFormatting sqref="F2:V22 F23:M23 O23:V23 F24:V25">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
@@ -2489,7 +2784,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C31">
+  <conditionalFormatting sqref="E29:E31">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -2498,7 +2793,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
@@ -2508,8 +2803,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:L29 B35:C35">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="I29:N29 C35:E35">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2518,8 +2813,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:T22 D23:K23 M23:T23 D24:T26 B34:C35 D27:D29 B33 G27:T29">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="F2:V22 F23:M23 O23:V23 F24:V26 C34:E35 F27:F29 C33:D33 I27:V29">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2528,8 +2823,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:T22 D23:K23 M23:T23 D24:T26 B34:C37 D27:D31 B33 G27:T31">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F2:V22 F23:M23 O23:V23 F24:V26 C34:E37 F27:F31 C33:D33 I27:V31">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2541,4 +2836,672 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A444CD-ABFA-43E8-93DE-1A886E557E5E}">
+  <dimension ref="B1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.140625" customWidth="1"/>
+    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="48"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="48"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="48"/>
+    </row>
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="48"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="H6" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="87"/>
+      <c r="M6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="48"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="72"/>
+      <c r="X7" s="48"/>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="87"/>
+      <c r="M8" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="72"/>
+      <c r="X8" s="48"/>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="H9" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="72"/>
+      <c r="X9" s="48"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C10" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+    </row>
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="72"/>
+      <c r="X11" s="48"/>
+    </row>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="H12" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="72"/>
+      <c r="X12" s="48"/>
+    </row>
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="48"/>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="H14" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="72"/>
+      <c r="X14" s="48"/>
+    </row>
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="72"/>
+      <c r="X15" s="48"/>
+    </row>
+    <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="48"/>
+    </row>
+    <row r="17" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="87"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="48"/>
+    </row>
+    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="48"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C19" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="48"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="48"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="48"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="48"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="48"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W24" s="72"/>
+      <c r="X24" s="48"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="S30" s="75"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="S31" s="75"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="S32" s="75"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="S33" s="75"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Zeit Abschätzung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC36B02-8D28-47BC-904F-DA739C2BF8C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DA196-4556-4DA3-80CC-29ACD0F6CA4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" activeTab="2" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5160" activeTab="1" xr2:uid="{7814A1BF-EA17-4740-A4EA-293E34BB9A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Abschätzung" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="78">
   <si>
     <t>Anpassen</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Aufgaben Task</t>
+  </si>
+  <si>
+    <t>Teilprojekt</t>
   </si>
 </sst>
 </file>
@@ -924,6 +930,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,53 +975,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,10 +1333,10 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1348,7 @@
       <c r="B4">
         <v>0.75</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="71" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1359,7 +1365,7 @@
       <c r="B5">
         <v>0.25</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1380,7 @@
       <c r="B6">
         <v>1.5</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="71" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1391,7 +1397,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1412,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="71" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1423,7 +1429,7 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1455,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1463,7 +1469,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1481,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1496,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1502,7 +1508,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1520,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1526,7 +1532,7 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1544,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1556,7 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1568,7 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1590,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1598,7 +1604,7 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1616,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1625,7 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="71" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1630,7 +1636,7 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1645,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1671,9 +1677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C5DED-3ECD-417F-AAE3-7276A3435899}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,8 +1698,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1766,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="74" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1794,7 +1804,7 @@
       <c r="V2" s="28"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1838,7 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1866,7 +1876,7 @@
       <c r="V4" s="28"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1910,7 @@
       <c r="V5" s="30"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1940,7 +1950,7 @@
       <c r="V6" s="28"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2038,7 @@
       <c r="V8" s="35"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="74" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2064,7 +2074,7 @@
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2108,7 @@
       <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2148,7 +2158,7 @@
       <c r="V11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +2192,7 @@
       <c r="V12" s="41"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2216,7 +2226,7 @@
       <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2250,7 +2260,7 @@
       <c r="V14" s="41"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
@@ -2284,7 +2294,7 @@
       <c r="V15" s="41"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2328,7 @@
       <c r="V16" s="41"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2352,7 +2362,7 @@
       <c r="V17" s="41"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2396,7 @@
       <c r="V18" s="41"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2430,7 @@
       <c r="V19" s="30"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2458,7 +2468,7 @@
       <c r="V20" s="28"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
@@ -2504,7 +2514,7 @@
       <c r="V21" s="41"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="17" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2548,7 @@
       <c r="V22" s="30"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2573,7 +2583,7 @@
       <c r="V23" s="28"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2619,7 @@
       <c r="V24" s="41"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
@@ -2644,10 +2654,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C28" s="60"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="78"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C29" s="47"/>
@@ -2683,10 +2693,10 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="61"/>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="73"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="11"/>
@@ -2842,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A444CD-ABFA-43E8-93DE-1A886E557E5E}">
   <dimension ref="B1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
@@ -2869,23 +2879,23 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
-      <c r="W2" s="72"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="W2" s="64"/>
       <c r="X2" s="48"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,37 +2918,37 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="W3" s="72"/>
+      <c r="W3" s="64"/>
       <c r="X3" s="48"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="W4" s="72"/>
+      <c r="W4" s="64"/>
       <c r="X4" s="48"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2961,185 +2971,185 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="W5" s="72"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="48"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="H6" s="86" t="s">
+      <c r="D6" s="80"/>
+      <c r="H6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="M6" s="86" t="s">
+      <c r="I6" s="80"/>
+      <c r="M6" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="87"/>
-      <c r="W6" s="72"/>
+      <c r="N6" s="80"/>
+      <c r="W6" s="64"/>
       <c r="X6" s="48"/>
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="72"/>
+      <c r="W7" s="64"/>
       <c r="X7" s="48"/>
     </row>
     <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="M8" s="75" t="s">
+      <c r="I8" s="80"/>
+      <c r="M8" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="72"/>
+      <c r="W8" s="64"/>
       <c r="X8" s="48"/>
     </row>
     <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="H9" s="75" t="s">
+      <c r="D9" s="80"/>
+      <c r="H9" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="72"/>
+      <c r="W9" s="64"/>
       <c r="X9" s="48"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="72"/>
+      <c r="W11" s="64"/>
       <c r="X11" s="48"/>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="H12" s="75" t="s">
+      <c r="D12" s="80"/>
+      <c r="H12" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="72"/>
+      <c r="W12" s="64"/>
       <c r="X12" s="48"/>
     </row>
     <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="W13" s="72"/>
+      <c r="W13" s="64"/>
       <c r="X13" s="48"/>
     </row>
     <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="H14" s="75" t="s">
+      <c r="D14" s="80"/>
+      <c r="H14" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="72"/>
+      <c r="W14" s="64"/>
       <c r="X14" s="48"/>
     </row>
     <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="72"/>
+      <c r="W15" s="64"/>
       <c r="X15" s="48"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="69" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="11"/>
@@ -3153,23 +3163,23 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="W16" s="72"/>
+      <c r="W16" s="64"/>
       <c r="X16" s="48"/>
     </row>
     <row r="17" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="67" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="87"/>
+      <c r="H17" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="80"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -3181,21 +3191,21 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="W17" s="72"/>
+      <c r="W17" s="64"/>
       <c r="X17" s="48"/>
     </row>
     <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="87"/>
+      <c r="C18" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="80"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="69" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="11"/>
@@ -3209,23 +3219,23 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="W18" s="72"/>
+      <c r="W18" s="64"/>
       <c r="X18" s="48"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="67" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="69" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="11"/>
@@ -3239,7 +3249,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
-      <c r="W19" s="72"/>
+      <c r="W19" s="64"/>
       <c r="X19" s="48"/>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
@@ -3259,7 +3269,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="W20" s="72"/>
+      <c r="W20" s="64"/>
       <c r="X20" s="48"/>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
@@ -3279,7 +3289,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
-      <c r="W21" s="72"/>
+      <c r="W21" s="64"/>
       <c r="X21" s="48"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
@@ -3301,7 +3311,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="W22" s="72"/>
+      <c r="W22" s="64"/>
       <c r="X22" s="48"/>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
@@ -3323,184 +3333,184 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="W23" s="72"/>
+      <c r="W23" s="64"/>
       <c r="X23" s="48"/>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="W24" s="72"/>
+      <c r="W24" s="64"/>
       <c r="X24" s="48"/>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="S30" s="66"/>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="S31" s="75"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="S32" s="75"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="S32" s="66"/>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="S33" s="75"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="S33" s="66"/>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
